--- a/Year1/Semester1/Agile Methodologies/Labs/src/Week5/Week5Tests.xlsx
+++ b/Year1/Semester1/Agile Methodologies/Labs/src/Week5/Week5Tests.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
   <workbookPr filterPrivacy="1" hidePivotFieldList="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31307112-1F1A-4CDB-87FE-88FD147832A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E98F2D4A-836D-4537-AA9E-62F2A8D0C634}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4020" yWindow="2055" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-5235" yWindow="6525" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="User Story Reference" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="32">
   <si>
     <t>Test Number</t>
   </si>
@@ -100,7 +100,22 @@
     <t>Output =  1   2   3   4   5</t>
   </si>
   <si>
-    <t>X</t>
+    <t>Input  = 123</t>
+  </si>
+  <si>
+    <t>Input = True</t>
+  </si>
+  <si>
+    <t>A table showing  the squares and cubes of the numbers from 0 to 10 and display the result in a table with the columns – number, square, and cube</t>
+  </si>
+  <si>
+    <t>firstName = 123</t>
+  </si>
+  <si>
+    <t>firstName = "John" lastName = "Doe"</t>
+  </si>
+  <si>
+    <t>fullName = John Doe</t>
   </si>
 </sst>
 </file>
@@ -265,7 +280,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -311,6 +326,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -593,15 +617,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="42.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="40.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48.28515625" customWidth="1"/>
     <col min="4" max="4" width="18.140625" customWidth="1"/>
     <col min="5" max="5" width="18.28515625" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
@@ -940,21 +964,21 @@
         <v>2</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B36" s="6" t="s">
+      <c r="B36" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="C36" s="10" t="s">
-        <v>20</v>
+      <c r="C36" s="19" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -1029,10 +1053,10 @@
         <v>2</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -1043,7 +1067,7 @@
         <v>15</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
